--- a/experiment_interface/data/set85_static_charts(Excel).xlsx
+++ b/experiment_interface/data/set85_static_charts(Excel).xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnelincoln-my.sharepoint.com/personal/twiederich2_unl_edu/Documents/Research/3d_graphical_perception/experiment_interface/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerwiederich/OneDrive - University of Nebraska-Lincoln/Research/3d_graphical_perception/experiment_interface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0070A6F1-52D2-0744-B109-E6F6FB5FF137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77D87B-3649-0E43-B66F-73414EE0C7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="760" windowWidth="24240" windowHeight="18880"/>
+    <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="set85_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">set85_data!$G$2:$G$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">set85_data!$J$2:$J$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">set85_data!$L$2:$L$12</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -187,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -699,13 +694,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -753,6 +747,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1883C5"/>
+      <color rgb="FF047663"/>
+      <color rgb="FF0A5446"/>
+      <color rgb="FF000000"/>
+      <color rgb="FF694780"/>
+      <color rgb="FFDD1E30"/>
+      <color rgb="FFFA8F00"/>
+      <color rgb="FFFAE000"/>
+      <color rgb="FF1990A9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1174,7 +1181,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="694780"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1191,7 +1198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5310A240-729A-614A-925E-617F1B4FEDFE}" type="CELLRANGE">
+                    <a:fld id="{31C79524-B61F-D14B-A90C-FE5633E68D3F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1223,7 +1230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60B71D8F-D3ED-3D49-91E2-71C187143C4C}" type="CELLRANGE">
+                    <a:fld id="{0B55AC3C-81E2-D447-8F21-6A1BCA8A2035}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1256,7 +1263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC5C9991-6A6D-DB44-9C3A-9E8B75A4EF38}" type="CELLRANGE">
+                    <a:fld id="{FCB10C04-E335-F344-BDE4-58DC467F6011}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1289,7 +1296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E885D652-A0C6-A241-A9C5-DCCDFF7661C2}" type="CELLRANGE">
+                    <a:fld id="{2B4A7269-C474-C04F-ADCD-620487B18261}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1322,7 +1329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B545E04-D689-8842-A40F-977DFA4CBCDB}" type="CELLRANGE">
+                    <a:fld id="{E936365E-896E-024B-8762-342E07A985D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1382,7 +1389,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{830139D3-A01C-8F46-A2A8-C3F32FCB63DB}" type="CELLRANGE">
+                    <a:fld id="{DB81E314-0D6A-9546-87BC-C8A994A50101}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1415,7 +1422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D64094D8-5014-524A-83AD-0D5A54E8FA37}" type="CELLRANGE">
+                    <a:fld id="{B722DA80-E73C-4E4C-B3E5-70D31B0DC14A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1448,7 +1455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57485F85-DE95-4F49-A405-119A6AAB8A69}" type="CELLRANGE">
+                    <a:fld id="{1239AE6F-7BA1-CD42-92D3-2849BB226303}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1481,7 +1488,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0F9BCCF-2365-064F-B852-82E4D506A40E}" type="CELLRANGE">
+                    <a:fld id="{818FBA9A-0995-FE4C-9026-0D169A17CFCC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1514,7 +1521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E24ECCC7-6451-6948-AE6E-D970DAC227D5}" type="CELLRANGE">
+                    <a:fld id="{009A80A8-8890-4E44-AF6A-FFFF13493063}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1661,7 +1668,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="694780"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1766,7 +1773,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1930,7 +1937,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="694780"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1947,7 +1954,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF4A3FB1-4587-214E-837F-ABDA7953DF4E}" type="CELLRANGE">
+                    <a:fld id="{4BBE32D9-0CE6-214E-B561-065C8C25A154}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1979,7 +1986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26D83C8A-BDB9-F345-86CC-419B3520A70B}" type="CELLRANGE">
+                    <a:fld id="{19F7726A-9D5F-554C-B524-D35768ACB5B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2012,7 +2019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89E9C487-52D4-6B4E-B018-C740EABADBF1}" type="CELLRANGE">
+                    <a:fld id="{3483991B-DF55-C444-83DA-7978511878B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2045,7 +2052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5C5B3F6-B23A-E54F-9D75-DAAAA6EF5F09}" type="CELLRANGE">
+                    <a:fld id="{B01F8822-380E-C044-BD90-15F84CCF1D96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2078,7 +2085,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D061CD7E-10EA-7648-81AB-C463F75DB846}" type="CELLRANGE">
+                    <a:fld id="{0E5723C4-6513-3243-86DF-754DDE8F6637}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2138,7 +2145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEB10C6D-4EF0-EB41-86EB-D2D23B8F62A4}" type="CELLRANGE">
+                    <a:fld id="{35417B70-3305-6F44-9437-1CFF2AB7A527}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2171,7 +2178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE8D6750-14BB-F940-933D-A1941DEC1880}" type="CELLRANGE">
+                    <a:fld id="{7800C907-E485-B446-8070-B753C5645A8A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2204,7 +2211,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFB4EA03-9DF9-F149-9CD2-D2094A05CBBE}" type="CELLRANGE">
+                    <a:fld id="{E311ED90-B24C-4E40-900D-73214D413B75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2237,7 +2244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8EB622B-52F1-7249-95E7-BC96DD20847C}" type="CELLRANGE">
+                    <a:fld id="{CFC6F060-4AD1-294C-96B9-C68CF295940E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2270,7 +2277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB88E9F0-45B9-F242-B1E5-99B18F30C6B9}" type="CELLRANGE">
+                    <a:fld id="{DD8C67E3-81EB-2E4F-BE59-23E3123D29BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2417,7 +2424,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="694780"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2522,7 +2529,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2686,7 +2693,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="047663"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2703,7 +2710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38AE40D6-8C75-1C42-ABD3-A4403225DAA4}" type="CELLRANGE">
+                    <a:fld id="{885E27BB-7E69-464F-A9EE-91F1DFA64596}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2735,7 +2742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{875FA07F-747C-D247-8017-D30FEDF9538C}" type="CELLRANGE">
+                    <a:fld id="{F362DB49-3CBF-D048-99A6-233E5B962809}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2768,7 +2775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC1590E4-D591-A847-A0A9-18166D098F8D}" type="CELLRANGE">
+                    <a:fld id="{B3ED7982-2F4A-A644-9418-2EC9112CE537}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2801,7 +2808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC364357-5CD1-2541-A29D-6BF14F69CEBD}" type="CELLRANGE">
+                    <a:fld id="{8070AC72-3937-0B4B-985E-B2CFE459AEC6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2834,7 +2841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F9477C9-1FDD-E343-872F-9C162BFFC0AE}" type="CELLRANGE">
+                    <a:fld id="{E10EA7EC-B151-0840-AC58-6B664D7FF6A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2894,7 +2901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63929506-A12F-2041-8C9B-DFA343C921F5}" type="CELLRANGE">
+                    <a:fld id="{B71A7F63-F65C-8A43-9143-2C12CEB48B47}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2927,7 +2934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A03954BA-86C1-284F-B6A4-8EDC32C9EA71}" type="CELLRANGE">
+                    <a:fld id="{3E9C84F7-ED21-724A-B8F8-85DFBAEFDCE5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2960,7 +2967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2BD6189-A69B-6D4F-845E-17FDF12EAA74}" type="CELLRANGE">
+                    <a:fld id="{55B1CB24-24AB-A04B-BA7C-627D544FFD34}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2993,7 +3000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01EA142B-5CAC-0441-B735-080442090BD5}" type="CELLRANGE">
+                    <a:fld id="{E6FD5AB8-FC05-964B-8854-0E5293C9273D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3026,7 +3033,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5055817B-1220-644C-B7D2-13ACEABC11ED}" type="CELLRANGE">
+                    <a:fld id="{F9B59618-3568-1C42-9368-9961A44ED61D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3173,7 +3180,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="047663"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3278,7 +3285,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3442,7 +3449,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="047663"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3459,7 +3466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74F052DE-E7C0-9C4B-8FE8-2DF3DED68BA2}" type="CELLRANGE">
+                    <a:fld id="{4A03DE3C-F8A7-134C-BE37-19FE05BAD7B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3491,7 +3498,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F35EE9B2-3D75-4246-9104-7C0F5286E81F}" type="CELLRANGE">
+                    <a:fld id="{3A18C8B6-DBB7-1942-8971-3F5C3E254E79}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3524,7 +3531,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0457846-210C-F040-9895-D8036BE70363}" type="CELLRANGE">
+                    <a:fld id="{51956CE8-2C1E-B04E-A458-2908FBFE54E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3557,7 +3564,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C268BD4-9205-6A45-B643-0F0C6B55B75B}" type="CELLRANGE">
+                    <a:fld id="{410C9E01-C8FE-9340-B509-B0C37FEA4874}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3590,7 +3597,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AA9D6B2-692E-1646-A7AB-244925DFABCF}" type="CELLRANGE">
+                    <a:fld id="{B40A4C30-5E7C-7541-B0CE-2D9C60F88D66}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3650,7 +3657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F017AB03-08C7-9A4F-B394-77B6B6B32C36}" type="CELLRANGE">
+                    <a:fld id="{9B990B03-2661-A245-B483-36C3D7EE5AE4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3683,7 +3690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB987A94-4432-7944-986D-2C25473844DE}" type="CELLRANGE">
+                    <a:fld id="{FDDB8032-E62D-AD45-81E8-905659AB2852}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3716,7 +3723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9698B83-F0C4-9E45-A25C-9330E8AB623C}" type="CELLRANGE">
+                    <a:fld id="{1A6B7AF9-01B4-3643-AEF6-C8F6A78E70B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3749,7 +3756,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9AE30A6-035C-A64E-AC18-CD270C4AEA76}" type="CELLRANGE">
+                    <a:fld id="{24F15709-3559-3544-916E-A5373D904515}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3782,7 +3789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6A18A10-D637-CA40-B29B-43C43C3B3F75}" type="CELLRANGE">
+                    <a:fld id="{64772538-B101-3841-8D08-161F26656DBE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3929,7 +3936,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="047663"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4034,7 +4041,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4198,7 +4205,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="1883C5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4215,7 +4222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BD1CDFF-83A9-3D47-9183-6E1CACF6570F}" type="CELLRANGE">
+                    <a:fld id="{06F3E54C-CDE4-A14D-A090-5A10BFADA040}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4247,7 +4254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDC865B4-A053-D34A-B595-6905697226B5}" type="CELLRANGE">
+                    <a:fld id="{7F70D640-4046-B644-B2A9-3135476ADDF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4280,7 +4287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0221B8C6-E80A-6D46-8F07-55538658A327}" type="CELLRANGE">
+                    <a:fld id="{6BF6C383-72A3-CF40-82BA-1CEA212AAD15}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4313,7 +4320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED0C593F-EA0B-1A43-8EFB-F477811E097C}" type="CELLRANGE">
+                    <a:fld id="{58B6D751-79B4-814D-B1A9-700576BF4E36}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4346,7 +4353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FE82DF2-3800-A14F-AB91-69AA688FDE73}" type="CELLRANGE">
+                    <a:fld id="{4D821AAC-FFA3-2E4D-9018-0154FC2E2F7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4406,7 +4413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AF6BD14-67CB-DA44-86D0-894554107BBF}" type="CELLRANGE">
+                    <a:fld id="{0312EBD1-1181-A44C-9999-56C31B386707}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4439,7 +4446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC1742EC-FF13-644E-9CDF-603E08ED9621}" type="CELLRANGE">
+                    <a:fld id="{1050EB60-8895-B148-80ED-CE044AC8F99F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4472,7 +4479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EDA0EBC-6A06-6847-BCE9-5587EF6F0EA1}" type="CELLRANGE">
+                    <a:fld id="{2FA476C7-5D27-3841-BD86-9A8F603983FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4505,7 +4512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C20DDD8-6BAF-EC43-8935-672B1BDAC6DB}" type="CELLRANGE">
+                    <a:fld id="{D541967F-BC22-E243-AB7B-B300751D1401}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4538,7 +4545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{241585F6-E811-6644-B708-EEDCFE6B3A9E}" type="CELLRANGE">
+                    <a:fld id="{F0B0AADA-9DDA-D441-9A07-DAB500B2420E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4685,7 +4692,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="1883C5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4790,7 +4797,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4954,7 +4961,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="1883C5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4971,7 +4978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82BA69E7-15FB-284E-894B-F49EA41621AF}" type="CELLRANGE">
+                    <a:fld id="{4265C75A-444F-9344-B06A-05EF3E3F5B7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5003,7 +5010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA0E26A6-00D5-A748-9EFB-81188CCD183F}" type="CELLRANGE">
+                    <a:fld id="{4D70E83F-6885-8C43-85F1-0BB71917D5F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5036,7 +5043,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C19D85ED-5A3F-6648-BEAF-6FB6562A14F6}" type="CELLRANGE">
+                    <a:fld id="{B0A6AC02-2481-7249-9FD4-19A29245A7C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5069,7 +5076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F553BF83-DE3D-2446-BD30-86D0D0314CC6}" type="CELLRANGE">
+                    <a:fld id="{CFE01C59-1A39-3147-98BE-064CC5D18320}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5102,7 +5109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{077113B5-BAFE-0C46-B51C-18EA580C64C8}" type="CELLRANGE">
+                    <a:fld id="{A36A0633-4951-6D40-B5BD-D8B8DAE465EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5162,7 +5169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92F27656-5418-6543-B20C-77E1F9562D00}" type="CELLRANGE">
+                    <a:fld id="{F19694CF-B145-5347-A360-3360F2C7D859}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5195,7 +5202,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4940114-6A6B-694A-B4D9-DB3101463680}" type="CELLRANGE">
+                    <a:fld id="{8857B587-A99D-B849-97E5-4EA33288C8A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5228,7 +5235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42C128D3-CAAE-2E45-BFA5-2B49C7EB4D5D}" type="CELLRANGE">
+                    <a:fld id="{0676DC3F-C253-2746-8FB7-E9A3C3DF2CFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5261,7 +5268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D21D9440-F529-CC4F-ACEB-9D5C0F454CD3}" type="CELLRANGE">
+                    <a:fld id="{E4A1515E-62BC-424E-8D6C-C40E54B73FC0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5294,7 +5301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BB744EC-4ACB-EC42-AC8C-DA48DD334B45}" type="CELLRANGE">
+                    <a:fld id="{1C4A43EF-57AA-4F4C-88EB-1856BBE8CCD9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5441,7 +5448,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="1883C5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5546,7 +5553,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5710,7 +5717,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="1990A9"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5727,7 +5734,39 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{728A8610-6876-C14C-8F3E-08B8FC6F87D5}" type="CELLRANGE">
+                    <a:fld id="{C578406A-E494-B443-A96E-7E5CB8A32B0A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0896-774A-BDBD-1E387020B314}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3592BEDD-EEEE-2342-828E-1CD9704F164A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5749,18 +5788,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-0896-774A-BDBD-1E387020B314}"/>
+                  <c16:uniqueId val="{00000003-0896-774A-BDBD-1E387020B314}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FD899F3-95F5-7D4C-9DA1-A91C5D0B8D19}" type="CELLRANGE">
+                    <a:fld id="{73358CC3-C8DD-3746-A4B4-5389CDF49FE1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5782,18 +5821,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0896-774A-BDBD-1E387020B314}"/>
+                  <c16:uniqueId val="{00000004-0896-774A-BDBD-1E387020B314}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="3"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B35AAC53-61E2-B74D-A238-3A053CE5139F}" type="CELLRANGE">
+                    <a:fld id="{AA2523BA-AF93-3644-B7F1-3277DD7BF9E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5815,39 +5854,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-0896-774A-BDBD-1E387020B314}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6A2D8F18-CE02-A242-A09D-8FC883AF4794}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0896-774A-BDBD-1E387020B314}"/>
                 </c:ext>
               </c:extLst>
@@ -5859,7 +5865,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B86AADE-5470-4347-8F9E-13DB0DFDD1B9}" type="CELLRANGE">
+                    <a:fld id="{CC2E8CDE-F8A1-B740-9CB2-EFA9ABDD044E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5919,7 +5925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D6A59C0-3657-8F4D-8510-D6F259725DE0}" type="CELLRANGE">
+                    <a:fld id="{646C10A4-7ADB-734F-A3CA-2F4934CDDF5B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5952,7 +5958,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4484BF0-A8D8-5442-9CC5-AE3AABA88A1C}" type="CELLRANGE">
+                    <a:fld id="{8CE8225A-BF0F-1A49-9C31-E0E0857A12C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5985,7 +5991,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4189FC7B-9DBE-D940-8F3C-7796086F403E}" type="CELLRANGE">
+                    <a:fld id="{0DDCBE4F-4EE2-FD41-9083-2A551D23E8CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6018,7 +6024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99F91E4F-8D9B-2043-8B4A-4E080C03DE3E}" type="CELLRANGE">
+                    <a:fld id="{458D2AB7-4315-6D4E-B919-5B7ADC037F72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6051,7 +6057,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD543A2D-3017-244C-B8F5-3CB54394AFA2}" type="CELLRANGE">
+                    <a:fld id="{CC36736D-77D6-704C-8B35-918D7241E23D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6198,7 +6204,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="1990A9"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6303,7 +6309,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6415,6 +6421,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -6467,7 +6474,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="1990A9"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6484,7 +6491,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C014C56-684B-9543-88E3-205B4AD3CE3B}" type="CELLRANGE">
+                    <a:fld id="{1519A339-5143-4744-AE76-C78AABAFC558}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6516,7 +6523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80481AA8-F81C-C547-9F2B-D0EECD6533DB}" type="CELLRANGE">
+                    <a:fld id="{EBAE08F9-9AAE-1E45-8CED-DA5ECAE4C71A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6549,7 +6556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2041A02-69E8-CA42-B2F0-8348DCC30995}" type="CELLRANGE">
+                    <a:fld id="{A5C466FD-5556-8845-BC35-5F9E092BCA3B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6582,7 +6589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1B8640F-FAE2-A84B-814E-0BC45E1B4941}" type="CELLRANGE">
+                    <a:fld id="{E1D668FF-26D7-2F49-914F-0976BE024F09}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6615,7 +6622,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{904BDC62-5FA9-1B4A-939D-48CF35C36339}" type="CELLRANGE">
+                    <a:fld id="{0AFCD6CC-11CC-ED4E-9864-6D7C048BD66A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6675,7 +6682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64997C33-40AA-A843-9826-C000DD871E50}" type="CELLRANGE">
+                    <a:fld id="{FC2B248D-1671-994B-8E79-A8AF7AEB2335}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6708,7 +6715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56EE8BB2-3689-E043-A3A8-0B3708A8516D}" type="CELLRANGE">
+                    <a:fld id="{9A4FFF76-56BD-C540-A9E1-6FBE6DAEAB4C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6741,7 +6748,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40ED22CF-9097-2540-B3A6-8388623B57AD}" type="CELLRANGE">
+                    <a:fld id="{3DB2E080-7397-824C-AF93-4116BB587D55}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6774,7 +6781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74262527-B9E5-FC4E-B76E-C6B36D449B62}" type="CELLRANGE">
+                    <a:fld id="{DF93B636-CDB6-C947-B88A-82E626ABC9BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6807,7 +6814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53BFD0D3-D7CC-1C44-841B-36C8B4278466}" type="CELLRANGE">
+                    <a:fld id="{A80C00A2-1C94-494D-ABD5-C30B23655E06}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6954,7 +6961,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="1990A9"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7059,7 +7066,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7223,7 +7230,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FAE000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7240,7 +7247,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDFA22A6-C2DC-2E41-83B2-927CFCBB6589}" type="CELLRANGE">
+                    <a:fld id="{3DD1DB14-22C4-A448-BD04-BF4FAFF3E2ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7272,7 +7279,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E958BD75-7690-6E47-BEFF-8B88C506F586}" type="CELLRANGE">
+                    <a:fld id="{8D39BAF6-475A-0A42-9CA4-00570A17121B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7305,7 +7312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2C8C7AE-2BB3-2D42-AD07-7C567A2F2869}" type="CELLRANGE">
+                    <a:fld id="{A6FA914F-01B7-334B-80A6-36E57B7C6641}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7338,7 +7345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65B6BC2E-93E6-F44A-A587-14DCDE348A85}" type="CELLRANGE">
+                    <a:fld id="{5AB803B6-CD68-4E4A-8A6D-0D4BDCFB3BED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7371,7 +7378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB1422F6-48AD-8A40-ADE1-0D754D787C64}" type="CELLRANGE">
+                    <a:fld id="{F35A67FF-FC39-074B-B5C7-D5C98AC4B53B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7431,7 +7438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69B29D07-ECD0-5344-A46B-3B3BA5DC4F4C}" type="CELLRANGE">
+                    <a:fld id="{DBEEE308-678D-6944-B41A-F276FE06CE06}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7464,7 +7471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8AD7E26-F5CF-674E-AFAB-93EC05954DB8}" type="CELLRANGE">
+                    <a:fld id="{BFFE0258-5585-9240-A94D-B85D12AE3947}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7497,7 +7504,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39A64702-427D-644C-9C26-1771605AD991}" type="CELLRANGE">
+                    <a:fld id="{2DA3A01C-36F9-2847-830E-74FA4C2787E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7530,7 +7537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54565293-C610-814A-9320-A0DEDCF795B6}" type="CELLRANGE">
+                    <a:fld id="{CB113DE9-952D-DE4E-823C-06FABF7442CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7563,7 +7570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E54581D-6DCE-664C-82D4-56721BB60057}" type="CELLRANGE">
+                    <a:fld id="{66058D39-BA95-C647-8AD8-95B8C6AFA377}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7710,7 +7717,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FAE000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7815,7 +7822,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7979,7 +7986,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FAE000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7996,7 +8003,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10E3F031-459E-C240-AE57-EBC39498A350}" type="CELLRANGE">
+                    <a:fld id="{D2D64823-BCD4-4442-A2DE-3D907DD9C711}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8028,7 +8035,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C2EC3C1-BD6C-1C42-B165-A6B9AD9B8269}" type="CELLRANGE">
+                    <a:fld id="{0F274A2E-DE29-4E4F-B990-CBE5D20903B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8061,7 +8068,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00DEF3C8-4F66-804A-BACB-CE395481E961}" type="CELLRANGE">
+                    <a:fld id="{98895E99-7976-ED48-AA10-46DA68A20DB4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8094,7 +8101,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88AF5C8C-257E-264C-974A-6FA1A22989CC}" type="CELLRANGE">
+                    <a:fld id="{CA9E4FC7-101F-2342-A409-CB86422E1DC3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8127,7 +8134,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49E02CE9-B8E3-9944-8105-5E0C2E1E3C5B}" type="CELLRANGE">
+                    <a:fld id="{4C2A9ED3-4C4E-4346-A653-8CCB1F315751}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8187,7 +8194,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2829A4ED-E9C0-5644-AEB3-F931F62FB55B}" type="CELLRANGE">
+                    <a:fld id="{758E9F7F-9EDC-B945-BB2D-32549FD5A76D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8220,7 +8227,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6BEE42A-B495-D44F-8E20-7F9756CA5392}" type="CELLRANGE">
+                    <a:fld id="{318F606D-EDA6-D147-8F84-02C8A2F69CF9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8253,7 +8260,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C07D8DC9-E66F-7E42-B705-6F58FB5D1C5B}" type="CELLRANGE">
+                    <a:fld id="{9BF8C66E-75F5-C442-9BD9-0FC789444E92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8286,7 +8293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D8E9859-A013-0B40-945B-8CDC0ED77B7A}" type="CELLRANGE">
+                    <a:fld id="{45EBE2F6-034C-9340-83B2-F7ED28FE64C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8319,7 +8326,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CC0139B-9FCF-3E4F-89FD-87D9CA180980}" type="CELLRANGE">
+                    <a:fld id="{F057188C-3493-E648-B55A-7F6E3128C14F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8466,7 +8473,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FAE000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8571,7 +8578,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8735,7 +8742,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FA8F00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8752,7 +8759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{580B7B57-71CD-3B4F-81A8-A8B80EE6D421}" type="CELLRANGE">
+                    <a:fld id="{23B33212-7733-164E-A655-409F65BE0251}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8784,7 +8791,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FB54294-71AA-0A44-B407-DCB9815EE93D}" type="CELLRANGE">
+                    <a:fld id="{AC218AA7-E70B-0042-A5EB-6B9BFD92FA3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8817,7 +8824,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3655BFDA-E8BB-5E46-97D0-B2C2878C378F}" type="CELLRANGE">
+                    <a:fld id="{2F8CC0D3-9E69-FE48-8023-8F217AC50C1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8850,7 +8857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61D92F7B-6E3E-2C4C-BBB8-C30FD6107893}" type="CELLRANGE">
+                    <a:fld id="{B67CA205-0A93-E24C-B0A5-DFE7C62FD93E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8883,7 +8890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40137F3A-12B4-464B-A031-CAB554DB7727}" type="CELLRANGE">
+                    <a:fld id="{53CCF0F2-B52E-3942-A97D-4D7B10CEEBDE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8943,7 +8950,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C970781-488A-4349-9E26-F8AF11CAC8BB}" type="CELLRANGE">
+                    <a:fld id="{1A76B8E7-FFE1-F145-B365-D626A6688A60}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8976,7 +8983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F40A8D35-F479-F04F-9FB8-F5558BDFB4F4}" type="CELLRANGE">
+                    <a:fld id="{76C8BB59-D65A-9A4F-B0C8-B6647F83334E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9009,7 +9016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{257CB068-525B-1742-AE83-D8B2D1CD8BFB}" type="CELLRANGE">
+                    <a:fld id="{D9631F33-7133-BD41-9326-427D366DDB42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9042,7 +9049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBFFCF4F-2C4E-3B4C-A948-37417CA35D55}" type="CELLRANGE">
+                    <a:fld id="{23B211C4-FD3B-B242-B81A-7360C3F041AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9075,7 +9082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A42CD835-C411-3142-98E6-ED2021A848E4}" type="CELLRANGE">
+                    <a:fld id="{3E9A0DBF-5AC5-6848-BE38-FDDD088E13B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9222,7 +9229,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FA8F00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -9327,7 +9334,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9491,7 +9498,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FA8F00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -9508,7 +9515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D233F49A-C6DD-2544-880E-4169C9449209}" type="CELLRANGE">
+                    <a:fld id="{93AECED2-D492-3942-8A62-AE9706B732EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9540,7 +9547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E958C8BA-B07E-964B-ADF0-7C45A090691D}" type="CELLRANGE">
+                    <a:fld id="{7455FF81-5EE0-8E48-BA28-77F7473255B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9573,7 +9580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1016D259-B1BF-0844-B580-17FAE7DE42A3}" type="CELLRANGE">
+                    <a:fld id="{1D6C710A-A09E-5949-887F-2454B6335137}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9606,7 +9613,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{440721F0-6B75-2944-9DCF-0CE75C2B7580}" type="CELLRANGE">
+                    <a:fld id="{C55D2F4E-E7F7-EC4E-BF23-50568062E832}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9639,7 +9646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16880A3E-254F-7149-A630-9F736EDB2052}" type="CELLRANGE">
+                    <a:fld id="{0D3C31EF-2C04-DD4E-8B78-DE5D7D84553F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9699,7 +9706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{527F8198-AB98-644C-924F-7136A72F89ED}" type="CELLRANGE">
+                    <a:fld id="{D359F942-D954-7945-B299-DFB64EF17B64}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9732,7 +9739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57DC57D2-43C2-6B42-A1FD-BB6839EC5663}" type="CELLRANGE">
+                    <a:fld id="{90020F6B-E98A-B14F-B2EB-7DF1C7F53089}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9765,7 +9772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E72F569F-BE6F-DD48-925F-9F48A304683D}" type="CELLRANGE">
+                    <a:fld id="{21773A85-150D-9647-B7D3-454C7484F727}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9798,7 +9805,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E137F4E7-86EF-A449-8EB3-577344D4C35F}" type="CELLRANGE">
+                    <a:fld id="{B976DCBC-F07F-5546-AA01-56D6483EE991}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9831,7 +9838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B11154E-F61A-0247-80F3-A78BB87C6636}" type="CELLRANGE">
+                    <a:fld id="{9952F70F-5646-5646-A4B9-84D99100E059}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9978,7 +9985,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FA8F00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -10083,7 +10090,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10247,7 +10254,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="DD1E30"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -10264,7 +10271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40D5DE99-AD06-F045-9807-490F505A703A}" type="CELLRANGE">
+                    <a:fld id="{6566ABA1-12E8-4E4E-BA1C-BE5792326055}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10296,7 +10303,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C87CAB7-C85A-B24D-B7F1-AD35CDB0F59F}" type="CELLRANGE">
+                    <a:fld id="{68702C48-1B42-6344-8D26-7207329666E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10329,7 +10336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11032383-1EEC-B44D-B4EE-D04E2B4FD30C}" type="CELLRANGE">
+                    <a:fld id="{B5C5549F-ED30-E243-9CE2-57B2A22D5E10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10362,7 +10369,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F961446-9F03-5D4F-B7D6-9A3E0A4B91DF}" type="CELLRANGE">
+                    <a:fld id="{1A06F43C-76B7-DB47-B607-5FC9196622BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10395,7 +10402,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5ADE07DE-CEAB-A24C-9703-0C5453B2A0AA}" type="CELLRANGE">
+                    <a:fld id="{6E2E6632-FEA0-D64E-9A9D-1ED8D6B96EDE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10455,7 +10462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF0F57DC-7F02-444D-A856-2A118625D845}" type="CELLRANGE">
+                    <a:fld id="{AB370DA3-29F7-DA46-9EDA-63049EE2B086}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10488,7 +10495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6A4766D-6394-9E41-9EF4-C5FB6172ECD4}" type="CELLRANGE">
+                    <a:fld id="{8CCC1AFD-5097-BF4E-85D9-9C3DEC67F4F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10521,7 +10528,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EA7181A-B5E4-2E47-9EA4-05596659BD72}" type="CELLRANGE">
+                    <a:fld id="{4B36B9D5-2CAC-4747-943F-36139BDD5C33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10554,7 +10561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C52EB9B-584A-F841-B0F1-140BB32BB74A}" type="CELLRANGE">
+                    <a:fld id="{7D2CC13E-2597-E54A-930F-AFF00A9C85B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10587,7 +10594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCBD2739-EAEA-3F4E-A16F-8478373785E0}" type="CELLRANGE">
+                    <a:fld id="{7848704E-DB4E-EE4F-9CFD-A50B3CC267D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10734,7 +10741,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="DD1E30"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -10839,7 +10846,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11003,7 +11010,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="DD1E30"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11020,7 +11027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AF1AF6D-581F-3144-8909-D6FCCDCA4B37}" type="CELLRANGE">
+                    <a:fld id="{FC8D4400-451A-A645-A806-F397154441BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11052,7 +11059,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3035C337-A6E8-1B4A-90AC-5B90075004E8}" type="CELLRANGE">
+                    <a:fld id="{D1DAB5FB-2B98-0943-8104-48CA86652641}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11085,7 +11092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88EDF2AE-FDE4-8D49-B66A-F8D48E418CCF}" type="CELLRANGE">
+                    <a:fld id="{E66EC5EB-1F71-1744-84F1-700B174BA7AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11118,7 +11125,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C3AE540-1942-7C4A-9134-FCF6DBCE66CD}" type="CELLRANGE">
+                    <a:fld id="{8B5AB74A-64A9-2548-9F9E-00B0C9914E9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11151,7 +11158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67117778-3D32-854C-ACAF-89A9F0AEFAB1}" type="CELLRANGE">
+                    <a:fld id="{B57A4910-F9F7-364A-BC8F-A8DEEDFA6E9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11211,7 +11218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9161F283-2427-D346-9D20-236994B43488}" type="CELLRANGE">
+                    <a:fld id="{721B4157-2076-084F-B7C0-5267A0DAC213}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11244,7 +11251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E03880F7-5970-8644-BF17-EE391A9E73A5}" type="CELLRANGE">
+                    <a:fld id="{40ED63D7-AB8C-E54B-8FEE-E48F5693088C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11277,7 +11284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8ACFD95-80D3-B74F-9CAF-2C9414FA971D}" type="CELLRANGE">
+                    <a:fld id="{B7E55963-D508-634B-8C19-F7E37CCB84CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11310,7 +11317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41892B68-BB64-F846-9C7C-3B0EE4666CDB}" type="CELLRANGE">
+                    <a:fld id="{6F910B2A-858F-F84D-9190-D1035619C051}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11343,7 +11350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BBEA92A-85A8-9648-9B67-17AC0768D977}" type="CELLRANGE">
+                    <a:fld id="{9F7F1641-7717-1946-9DDD-6E8C1AE43ED2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11490,7 +11497,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="DD1E30"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11595,7 +11602,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -19714,10 +19721,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>497441</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>277661</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19728,7 +19735,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -19744,16 +19753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>32308</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>824701</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>379346</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>704813</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19783</xdr:rowOff>
+      <xdr:rowOff>121677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19764,7 +19773,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -19783,13 +19794,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>43522</xdr:rowOff>
+      <xdr:rowOff>146424</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19820,14 +19831,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>206239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>43522</xdr:rowOff>
+      <xdr:rowOff>143386</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19858,14 +19869,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>43522</xdr:rowOff>
+      <xdr:rowOff>140346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19896,14 +19907,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>43521</xdr:rowOff>
+      <xdr:rowOff>140346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19934,14 +19945,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>43521</xdr:rowOff>
+      <xdr:rowOff>140346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19976,10 +19987,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>43522</xdr:rowOff>
+      <xdr:rowOff>143386</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20014,10 +20025,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>43522</xdr:rowOff>
+      <xdr:rowOff>143386</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20048,14 +20059,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>43521</xdr:rowOff>
+      <xdr:rowOff>140346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20086,14 +20097,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>43521</xdr:rowOff>
+      <xdr:rowOff>140346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20124,14 +20135,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>43521</xdr:rowOff>
+      <xdr:rowOff>140346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20166,10 +20177,10 @@
       <xdr:rowOff>201775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>43521</xdr:rowOff>
+      <xdr:rowOff>138922</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20200,14 +20211,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>43521</xdr:rowOff>
+      <xdr:rowOff>140346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20238,14 +20249,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>347038</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>705612</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>43521</xdr:rowOff>
+      <xdr:rowOff>140345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20270,6 +20281,144 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50364</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>183445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>631253</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Plot object">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB0C43E-4649-5A7F-817D-B135E2AA92AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent2">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:alphaModFix amt="35000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16497258" y="1839967"/>
+          <a:ext cx="3065672" cy="2990088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542668</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Plot object">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20396AF-6ABD-2B38-3EF9-902ED68955E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:srgbClr val="D9C3A5">
+              <a:tint val="50000"/>
+              <a:satMod val="180000"/>
+            </a:srgbClr>
+          </a:duotone>
+          <a:alphaModFix amt="50000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16161302" y="4899649"/>
+          <a:ext cx="3084450" cy="2990088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20570,425 +20719,713 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="111" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q219" sqref="Q219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>42.965945905259701</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <f>F2-$K$2</f>
         <v>32.965945905259701</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
         <f>$K$2</f>
         <v>10</v>
       </c>
-      <c r="K2" s="4">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1"/>
       <c r="R2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
         <f t="shared" ref="G3:G66" si="0">F3-$K$2</f>
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <f t="shared" ref="J3:J66" si="1">$K$2</f>
         <v>10</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>56.234132519034901</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>46.234132519034901</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>24.5243675459601</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>14.5243675459601</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>74.278917699547407</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>64.278917699547407</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>29.378179554378001</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>19.378179554378001</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>59.158047863015703</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>49.158047863015703</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>45.072756430663198</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>35.072756430663198</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>48.010561487105399</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>38.010561487105399</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>13.128703219423601</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>3.1287032194236009</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -21020,7 +21457,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -21055,7 +21492,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -21087,7 +21524,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21121,7 +21558,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -21153,13 +21590,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="1"/>
       <c r="R17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="3"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -21191,7 +21628,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -21226,7 +21663,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -21258,7 +21695,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -21292,7 +21729,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -21324,372 +21761,372 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>82.557888245370705</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>72.557888245370705</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="3">
-        <v>10</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>17.7827941003892</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>7.7827941003892001</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>46.739045693718197</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <f t="shared" si="0"/>
         <v>36.739045693718197</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3">
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>5</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>14.9736521445185</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <f t="shared" si="0"/>
         <v>4.9736521445184998</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3">
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>6</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>67.373451517802707</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <f t="shared" si="0"/>
         <v>57.373451517802707</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3">
+      <c r="H30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>3</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>7</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>79.381486015083595</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="1">
         <f t="shared" si="0"/>
         <v>69.381486015083595</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>8</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <v>3</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="1">
         <v>41.2527013568344</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>31.2527013568344</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3">
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3" t="s">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>9</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>4</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>41.658256843034003</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="1">
         <f t="shared" si="0"/>
         <v>31.658256843034003</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3">
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
       <c r="R33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="3">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>94.1383267124979</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <f t="shared" si="0"/>
         <v>84.1383267124979</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3">
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -21721,7 +22158,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -21756,7 +22193,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -21788,7 +22225,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -21822,7 +22259,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -21854,10 +22291,10 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L40" s="3"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -21889,7 +22326,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -21924,7 +22361,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -21956,7 +22393,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -21990,7 +22427,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -22022,372 +22459,372 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>5</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>69.435834706794395</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="1">
         <f t="shared" si="0"/>
         <v>59.435834706794395</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3">
+      <c r="H46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>5</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>12.1152765862859</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="1">
         <f t="shared" si="0"/>
         <v>2.1152765862858995</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>3</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="1">
         <v>17.7827941003892</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="1">
         <f t="shared" si="0"/>
         <v>7.7827941003892001</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3" t="s">
+      <c r="K48" s="1"/>
+      <c r="L48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <v>5</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>4</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="1">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="1">
         <v>10.3228670429296</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="1">
         <f t="shared" si="0"/>
         <v>0.32286704292959989</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3">
+      <c r="H49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
       <c r="R49" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>5</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>5</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="1">
         <v>5</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="1">
         <v>25.673238595539601</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="1">
         <f t="shared" si="0"/>
         <v>15.673238595539601</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3">
+      <c r="H50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <v>5</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>6</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>95.960503360663694</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="1">
         <f t="shared" si="0"/>
         <v>85.960503360663694</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3">
+      <c r="H52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="1">
         <v>5</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>7</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <v>87.346365021883699</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="1">
         <f t="shared" si="0"/>
         <v>77.346365021883699</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3">
+      <c r="H53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>5</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>8</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="1">
         <v>3</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <v>72.871116387647604</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="1">
         <f t="shared" si="0"/>
         <v>62.871116387647604</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3">
+      <c r="H54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3" t="s">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <v>5</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>9</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="1">
         <v>4</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>46.756704900114201</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="1">
         <f t="shared" si="0"/>
         <v>36.756704900114201</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3">
+      <c r="H55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>5</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="3">
-        <v>10</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="1">
         <v>5</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>39.633627479104298</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="1">
         <f t="shared" si="0"/>
         <v>29.633627479104298</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3">
+      <c r="H56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -22419,7 +22856,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L57" s="3"/>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -22454,7 +22891,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L58" s="3"/>
+      <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -22486,7 +22923,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -22520,7 +22957,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L60" s="3"/>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -22552,10 +22989,10 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L61" s="3"/>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L62" s="3"/>
+      <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -22587,7 +23024,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L63" s="3"/>
+      <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -22622,7 +23059,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L64" s="3"/>
+      <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -22654,7 +23091,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="L65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="R65" t="s">
@@ -22691,7 +23128,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L66" s="3"/>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -22723,369 +23160,369 @@
         <f t="shared" ref="J67:J130" si="3">$K$2</f>
         <v>10</v>
       </c>
-      <c r="L67" s="3"/>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68" s="1">
         <v>7</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>1</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="1">
         <v>1</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="1">
         <v>82.337419042112799</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="1">
         <f t="shared" si="2"/>
         <v>72.337419042112799</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3">
+      <c r="H68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69" s="1">
         <v>7</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="1">
         <v>2</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="1">
         <v>12.1152765862859</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="1">
         <f t="shared" si="2"/>
         <v>2.1152765862858995</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70" s="1">
         <v>7</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <v>3</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="1">
         <v>3</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="1">
         <v>26.101572156825402</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="1">
         <f t="shared" si="2"/>
         <v>16.101572156825402</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3" t="s">
+      <c r="K70" s="1"/>
+      <c r="L70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="A71" s="1">
         <v>7</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="1">
         <v>4</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="1">
         <v>4</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="1">
         <v>32.159218800928997</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="1">
         <f t="shared" si="2"/>
         <v>22.159218800928997</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3">
+      <c r="H71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+      <c r="A72" s="1">
         <v>7</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="1">
         <v>5</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="1">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="1">
         <v>23.855801306215099</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="1">
         <f t="shared" si="2"/>
         <v>13.855801306215099</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3">
+      <c r="H72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="1">
         <v>7</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <v>6</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="1">
         <v>1</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="1">
         <v>17.767567608789399</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="1">
         <f t="shared" si="2"/>
         <v>7.767567608789399</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3">
+      <c r="H74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="1">
         <v>7</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="1">
         <v>7</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="1">
         <v>2</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="1">
         <v>49.953190906115303</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="1">
         <f t="shared" si="2"/>
         <v>39.953190906115303</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3">
+      <c r="H75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76" s="1">
         <v>7</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="1">
         <v>8</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="1">
         <v>3</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="1">
         <v>62.353499662006698</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="1">
         <f t="shared" si="2"/>
         <v>52.353499662006698</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3">
+      <c r="H76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3" t="s">
+      <c r="K76" s="1"/>
+      <c r="L76" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77" s="1">
         <v>7</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="1">
         <v>9</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="1">
         <v>4</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="1">
         <v>13.227999663073099</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="1">
         <f t="shared" si="2"/>
         <v>3.2279996630730992</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3">
+      <c r="H77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78" s="1">
         <v>7</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="3">
-        <v>10</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="1">
         <v>5</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="1">
         <v>34.818858634965302</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="1">
         <f t="shared" si="2"/>
         <v>24.818858634965302</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3">
+      <c r="H78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -23117,7 +23554,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L79" s="3"/>
+      <c r="L79" s="1"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -23152,7 +23589,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L80" s="3"/>
+      <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -23184,7 +23621,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L81" s="3" t="s">
+      <c r="L81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R81" t="s">
@@ -23221,7 +23658,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L82" s="3"/>
+      <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
@@ -23253,10 +23690,10 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L83" s="3"/>
+      <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L84" s="3"/>
+      <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -23288,7 +23725,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L85" s="3"/>
+      <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -23323,7 +23760,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L86" s="3"/>
+      <c r="L86" s="1"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
@@ -23355,7 +23792,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="L87" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -23389,7 +23826,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L88" s="3"/>
+      <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
@@ -23421,370 +23858,370 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L89" s="3"/>
+      <c r="L89" s="1"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+      <c r="A90" s="1">
         <v>9</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="1">
         <v>1</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="1">
         <v>1</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="1">
         <v>2.50093960681484</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="1">
         <v>2.50093960681484</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3">
+      <c r="H90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1">
         <v>0</v>
       </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+      <c r="A91" s="1">
         <v>9</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="1">
         <v>2</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="1">
         <v>2</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="1">
         <v>14.6779926762207</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="1">
         <f t="shared" si="2"/>
         <v>4.6779926762207005</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+      <c r="A92" s="1">
         <v>9</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="1">
         <v>3</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="1">
         <v>3</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="1">
         <v>38.311868495572902</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="1">
         <f t="shared" si="2"/>
         <v>28.311868495572902</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3" t="s">
+      <c r="K92" s="1"/>
+      <c r="L92" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+      <c r="A93" s="1">
         <v>9</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="1">
         <v>4</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="1">
         <v>4</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="1">
         <v>67.207196521282896</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="1">
         <f t="shared" si="2"/>
         <v>57.207196521282896</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3">
+      <c r="H93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+      <c r="A94" s="1">
         <v>9</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="1">
         <v>5</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="1">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="1">
         <v>29.091627866779898</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="1">
         <f t="shared" si="2"/>
         <v>19.091627866779898</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3">
+      <c r="H94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+      <c r="A96" s="1">
         <v>9</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="1">
         <v>6</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="1">
         <v>1</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="1">
         <v>71.642905068795997</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="1">
         <f t="shared" si="2"/>
         <v>61.642905068795997</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3">
+      <c r="H96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+      <c r="A97" s="1">
         <v>9</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="1">
         <v>7</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="1">
         <v>2</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="1">
         <v>31.3502431350684</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="1">
         <f t="shared" si="2"/>
         <v>21.3502431350684</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3">
+      <c r="H97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
       <c r="R97" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+      <c r="A98" s="1">
         <v>9</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="1">
         <v>8</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="1">
         <v>3</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="1">
         <v>20.340980137926799</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="1">
         <f t="shared" si="2"/>
         <v>10.340980137926799</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3">
+      <c r="H98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3" t="s">
+      <c r="K98" s="1"/>
+      <c r="L98" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+      <c r="A99" s="1">
         <v>9</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="1">
         <v>9</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="1">
         <v>4</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="1">
         <v>62.604002608125001</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="1">
         <f t="shared" si="2"/>
         <v>52.604002608125001</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3">
+      <c r="H99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+      <c r="A100" s="1">
         <v>9</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C100" s="3">
-        <v>10</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="C100" s="1">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="1">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="1">
         <v>84.5594779628005</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="1">
         <f t="shared" si="2"/>
         <v>74.5594779628005</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3">
+      <c r="H100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
@@ -23816,7 +24253,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L101" s="3"/>
+      <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
@@ -23851,7 +24288,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="1"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
@@ -23883,7 +24320,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L103" s="3" t="s">
+      <c r="L103" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -23917,7 +24354,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L104" s="3"/>
+      <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
@@ -23949,10 +24386,10 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L105" s="3"/>
+      <c r="L105" s="1"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L106" s="3"/>
+      <c r="L106" s="1"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
@@ -23984,7 +24421,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L107" s="3"/>
+      <c r="L107" s="1"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
@@ -24019,7 +24456,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L108" s="3"/>
+      <c r="L108" s="1"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
@@ -24049,7 +24486,7 @@
       <c r="J109">
         <v>0</v>
       </c>
-      <c r="L109" s="3" t="s">
+      <c r="L109" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -24083,7 +24520,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L110" s="3"/>
+      <c r="L110" s="1"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
@@ -24115,113 +24552,113 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L111" s="3"/>
+      <c r="L111" s="1"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+      <c r="A112" s="1">
         <v>11</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="1">
         <v>1</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="1">
         <v>1</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="1">
         <v>23.530533632604801</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="1">
         <f t="shared" si="2"/>
         <v>13.530533632604801</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3">
+      <c r="H112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+      <c r="A113" s="1">
         <v>11</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="1">
         <v>2</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="1">
         <v>2</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="1">
         <v>14.6779926762207</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="1">
         <f t="shared" si="2"/>
         <v>4.6779926762207005</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H113" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="I113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+      <c r="A114" s="1">
         <v>11</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="1">
         <v>3</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="1">
         <v>3</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="1">
         <v>56.234132519034901</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="1">
         <f t="shared" si="2"/>
         <v>46.234132519034901</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="I114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3" t="s">
+      <c r="K114" s="1"/>
+      <c r="L114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R114" t="s">
@@ -24229,256 +24666,256 @@
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+      <c r="A115" s="1">
         <v>11</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="1">
         <v>4</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="1">
         <v>4</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="1">
         <v>58.134254265612803</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="1">
         <f t="shared" si="2"/>
         <v>48.134254265612803</v>
       </c>
-      <c r="H115" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3">
+      <c r="H115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+      <c r="A116" s="1">
         <v>11</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="1">
         <v>5</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="1">
         <v>5</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="1">
         <v>63.411465663148803</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="1">
         <f t="shared" si="2"/>
         <v>53.411465663148803</v>
       </c>
-      <c r="H116" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3">
+      <c r="H116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+      <c r="A118" s="1">
         <v>11</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="1">
         <v>6</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="1">
         <v>1</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="1">
         <v>41.212562113265598</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="1">
         <f t="shared" si="2"/>
         <v>31.212562113265598</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3">
+      <c r="H118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+      <c r="A119" s="1">
         <v>11</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="1">
         <v>7</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="1">
         <v>2</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="1">
         <v>8.6684277159210801</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="1">
         <v>8.6684277159210801</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3">
+      <c r="H119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1">
         <v>0</v>
       </c>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+      <c r="A120" s="1">
         <v>11</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="1">
         <v>8</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="1">
         <v>3</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="1">
         <v>40.809980488815398</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="1">
         <f t="shared" si="2"/>
         <v>30.809980488815398</v>
       </c>
-      <c r="H120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3">
+      <c r="H120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3" t="s">
+      <c r="K120" s="1"/>
+      <c r="L120" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+      <c r="A121" s="1">
         <v>11</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="1">
         <v>9</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="1">
         <v>4</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="1">
         <v>70.364056166775597</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="1">
         <f t="shared" si="2"/>
         <v>60.364056166775597</v>
       </c>
-      <c r="H121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3">
+      <c r="H121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+      <c r="A122" s="1">
         <v>11</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="3">
-        <v>10</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C122" s="1">
+        <v>10</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="1">
         <v>5</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="1">
         <v>57.536660964198902</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="1">
         <f t="shared" si="2"/>
         <v>47.536660964198902</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3">
+      <c r="H122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
@@ -24510,7 +24947,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L123" s="3"/>
+      <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
@@ -24545,7 +24982,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L124" s="3"/>
+      <c r="L124" s="1"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
@@ -24577,7 +25014,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L125" s="3" t="s">
+      <c r="L125" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -24611,7 +25048,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L126" s="3"/>
+      <c r="L126" s="1"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
@@ -24643,10 +25080,10 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L127" s="3"/>
+      <c r="L127" s="1"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L128" s="3"/>
+      <c r="L128" s="1"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
@@ -24678,7 +25115,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L129" s="3"/>
+      <c r="L129" s="1"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
@@ -24713,7 +25150,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L130" s="3"/>
+      <c r="L130" s="1"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
@@ -24743,7 +25180,7 @@
       <c r="J131">
         <v>0</v>
       </c>
-      <c r="L131" s="3" t="s">
+      <c r="L131" s="1" t="s">
         <v>15</v>
       </c>
       <c r="R131" t="s">
@@ -24770,17 +25207,17 @@
         <v>58.134254265612803</v>
       </c>
       <c r="G132">
-        <f t="shared" ref="G131:G166" si="4">F132-$K$2</f>
+        <f t="shared" ref="G132:G166" si="4">F132-$K$2</f>
         <v>48.134254265612803</v>
       </c>
       <c r="H132" t="s">
         <v>10</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J131:J166" si="5">$K$2</f>
-        <v>10</v>
-      </c>
-      <c r="L132" s="3"/>
+        <f t="shared" ref="J132:J166" si="5">$K$2</f>
+        <v>10</v>
+      </c>
+      <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
@@ -24812,369 +25249,369 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L133" s="3"/>
+      <c r="L133" s="1"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+      <c r="A134" s="1">
         <v>13</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="1">
         <v>1</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="1">
         <v>76.263100598359401</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="1">
         <f t="shared" si="4"/>
         <v>66.263100598359401</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3">
+      <c r="H134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+      <c r="A135" s="1">
         <v>13</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="1">
         <v>2</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="1">
         <v>2</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="1">
         <v>26.101572156825402</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G135" s="1">
         <f t="shared" si="4"/>
         <v>16.101572156825402</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="3" t="s">
+      <c r="I135" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J135" s="3">
+      <c r="J135" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+      <c r="A136" s="1">
         <v>13</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="1">
         <v>3</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="1">
         <v>3</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="1">
         <v>31.6227766016838</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="1">
         <f t="shared" si="4"/>
         <v>21.6227766016838</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I136" s="3" t="s">
+      <c r="I136" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J136" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K136" s="3"/>
-      <c r="L136" s="3" t="s">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
+      <c r="A137" s="1">
         <v>13</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="1">
         <v>4</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="1">
         <v>4</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="1">
         <v>33.372026424257399</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="1">
         <f t="shared" si="4"/>
         <v>23.372026424257399</v>
       </c>
-      <c r="H137" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3">
+      <c r="H137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
+      <c r="A138" s="1">
         <v>13</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="1">
         <v>5</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="1">
         <v>5</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="1">
         <v>32.265682854797703</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="1">
         <f t="shared" si="4"/>
         <v>22.265682854797703</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3">
+      <c r="H138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+      <c r="A140" s="1">
         <v>13</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="1">
         <v>6</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="1">
         <v>1</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="1">
         <v>67.015677430495103</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="1">
         <f t="shared" si="4"/>
         <v>57.015677430495103</v>
       </c>
-      <c r="H140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3">
+      <c r="H140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+      <c r="A141" s="1">
         <v>13</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="1">
         <v>7</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="1">
         <v>2</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="1">
         <v>52.122161546390103</v>
       </c>
-      <c r="G141" s="3">
+      <c r="G141" s="1">
         <f t="shared" si="4"/>
         <v>42.122161546390103</v>
       </c>
-      <c r="H141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3">
+      <c r="H141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
+      <c r="A142" s="1">
         <v>13</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="1">
         <v>8</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="1">
         <v>3</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="1">
         <v>88.308933894810295</v>
       </c>
-      <c r="G142" s="3">
+      <c r="G142" s="1">
         <f t="shared" si="4"/>
         <v>78.308933894810295</v>
       </c>
-      <c r="H142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3">
+      <c r="H142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3" t="s">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+      <c r="A143" s="1">
         <v>13</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="1">
         <v>9</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="1">
         <v>4</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="1">
         <v>12.6902636651609</v>
       </c>
-      <c r="G143" s="3">
+      <c r="G143" s="1">
         <f t="shared" si="4"/>
         <v>2.6902636651609004</v>
       </c>
-      <c r="H143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3">
+      <c r="H143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
+      <c r="A144" s="1">
         <v>13</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="3">
-        <v>10</v>
-      </c>
-      <c r="D144" s="3" t="s">
+      <c r="C144" s="1">
+        <v>10</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="1">
         <v>5</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="1">
         <v>70.415499667765999</v>
       </c>
-      <c r="G144" s="3">
+      <c r="G144" s="1">
         <f t="shared" si="4"/>
         <v>60.415499667765999</v>
       </c>
-      <c r="H144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3">
+      <c r="H144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
@@ -25206,7 +25643,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L145" s="3"/>
+      <c r="L145" s="1"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
@@ -25241,7 +25678,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L146" s="3"/>
+      <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147">
@@ -25273,7 +25710,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L147" s="3" t="s">
+      <c r="L147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -25307,7 +25744,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L148" s="3"/>
+      <c r="L148" s="1"/>
       <c r="R148" t="s">
         <v>42</v>
       </c>
@@ -25342,10 +25779,10 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L149" s="3"/>
+      <c r="L149" s="1"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L150" s="3"/>
+      <c r="L150" s="1"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151">
@@ -25377,7 +25814,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L151" s="3"/>
+      <c r="L151" s="1"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152">
@@ -25412,7 +25849,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L152" s="3"/>
+      <c r="L152" s="1"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153">
@@ -25444,7 +25881,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L153" s="3" t="s">
+      <c r="L153" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -25478,7 +25915,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L154" s="3"/>
+      <c r="L154" s="1"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155">
@@ -25510,372 +25947,372 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L155" s="3"/>
+      <c r="L155" s="1"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
+      <c r="A156" s="1">
         <v>15</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="1">
         <v>1</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="1">
         <v>1</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="1">
         <v>96.491115594642693</v>
       </c>
-      <c r="G156" s="3">
+      <c r="G156" s="1">
         <f t="shared" si="4"/>
         <v>86.491115594642693</v>
       </c>
-      <c r="H156" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3">
+      <c r="H156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
+      <c r="A157" s="1">
         <v>15</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="1">
         <v>2</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="1">
         <v>2</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="1">
         <v>14.6779926762207</v>
       </c>
-      <c r="G157" s="3">
+      <c r="G157" s="1">
         <f t="shared" si="4"/>
         <v>4.6779926762207005</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H157" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I157" s="3" t="s">
+      <c r="I157" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J157" s="3">
+      <c r="J157" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K157" s="3"/>
-      <c r="L157" s="3"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
+      <c r="A158" s="1">
         <v>15</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="1">
         <v>3</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="1">
         <v>3</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="1">
         <v>38.311868495572902</v>
       </c>
-      <c r="G158" s="3">
+      <c r="G158" s="1">
         <f t="shared" si="4"/>
         <v>28.311868495572902</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="I158" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J158" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K158" s="3"/>
-      <c r="L158" s="3" t="s">
+      <c r="K158" s="1"/>
+      <c r="L158" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
+      <c r="A159" s="1">
         <v>15</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="1">
         <v>4</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="1">
         <v>4</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="1">
         <v>54.1298916003351</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G159" s="1">
         <f t="shared" si="4"/>
         <v>44.1298916003351</v>
       </c>
-      <c r="H159" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3">
+      <c r="H159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
+      <c r="A160" s="1">
         <v>15</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="1">
         <v>5</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="1">
         <v>5</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="1">
         <v>86.162194779312799</v>
       </c>
-      <c r="G160" s="3">
+      <c r="G160" s="1">
         <f t="shared" si="4"/>
         <v>76.162194779312799</v>
       </c>
-      <c r="H160" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3">
+      <c r="H160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K160" s="3"/>
-      <c r="L160" s="3"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-      <c r="L161" s="3"/>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
+      <c r="A162" s="1">
         <v>15</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="1">
         <v>6</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="1">
         <v>1</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="1">
         <v>58.600258059547002</v>
       </c>
-      <c r="G162" s="3">
+      <c r="G162" s="1">
         <f t="shared" si="4"/>
         <v>48.600258059547002</v>
       </c>
-      <c r="H162" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3">
+      <c r="H162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
+      <c r="A163" s="1">
         <v>15</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="1">
         <v>7</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="1">
         <v>2</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="1">
         <v>52.004378165487402</v>
       </c>
-      <c r="G163" s="3">
+      <c r="G163" s="1">
         <f t="shared" si="4"/>
         <v>42.004378165487402</v>
       </c>
-      <c r="H163" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3">
+      <c r="H163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
+      <c r="A164" s="1">
         <v>15</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="1">
         <v>8</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="1">
         <v>3</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="1">
         <v>78.565900470824502</v>
       </c>
-      <c r="G164" s="3">
+      <c r="G164" s="1">
         <f t="shared" si="4"/>
         <v>68.565900470824502</v>
       </c>
-      <c r="H164" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3">
+      <c r="H164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K164" s="3"/>
-      <c r="L164" s="3" t="s">
+      <c r="K164" s="1"/>
+      <c r="L164" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
+      <c r="A165" s="1">
         <v>15</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="1">
         <v>9</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="1">
         <v>4</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="1">
         <v>29.6718923746629</v>
       </c>
-      <c r="G165" s="3">
+      <c r="G165" s="1">
         <f t="shared" si="4"/>
         <v>19.6718923746629</v>
       </c>
-      <c r="H165" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3">
+      <c r="H165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
       <c r="R165" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A166" s="3">
+      <c r="A166" s="1">
         <v>15</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C166" s="3">
-        <v>10</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="C166" s="1">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="1">
         <v>5</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="1">
         <v>52.457699535835303</v>
       </c>
-      <c r="G166" s="3">
+      <c r="G166" s="1">
         <f t="shared" si="4"/>
         <v>42.457699535835303</v>
       </c>
-      <c r="H166" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3">
+      <c r="H166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
     </row>
     <row r="181" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R181" t="s">
